--- a/LUM2_Benthic_Chlorophyll.xlsx
+++ b/LUM2_Benthic_Chlorophyll.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaaguiar/Desktop/LUMCON REU/Project/LUMCONREU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4DAC6-9BBD-424A-9C68-84C33CD5879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72125367-1B7E-434E-BFDF-4EB28496A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="566">
   <si>
     <t>Year</t>
   </si>
@@ -1697,6 +1708,27 @@
   </si>
   <si>
     <t>13.643736524223099</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Average_Chla</t>
+  </si>
+  <si>
+    <t>Study_month</t>
   </si>
 </sst>
 </file>
@@ -2083,15 +2115,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,4527 +2150,5199 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>29.256022219999998</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G2">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <f>(J2+J3)/2</f>
+        <v>13.976911262026</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>29.256022219999998</v>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G3">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <f>(J4+J5)/2</f>
+        <v>4.6795517826825055</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>29.256022219999998</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G4">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4">
+        <f>(J6+J7)/2</f>
+        <v>5.5569677419354804</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>29.256022219999998</v>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G5">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5">
+        <f>(J8+J9)/2</f>
+        <v>6.5481228070175295</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>29.256022219999998</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G6">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <f>(J10+J11)/2</f>
+        <v>6.135412337294845</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>51</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>29.256022219999998</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G7">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7">
+        <f>(J12+J13)/2</f>
+        <v>7.9259908319184946</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
         <v>56</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>29.256022219999998</v>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G8">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <f>(J14+J15)/2</f>
+        <v>12.958133842671149</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>64</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>29.256022219999998</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G9">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9">
+        <f>(J16+J17)/2</f>
+        <v>7.3897921901527948</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>69</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>70</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>29.256022219999998</v>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G10">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10">
+        <f>(J18+J19)/2</f>
+        <v>11.975102999434</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>29.256022219999998</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G11">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>78</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>79</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11">
+        <f>(J20+J21)/2</f>
+        <v>6.8584680814940455</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>29.256022219999998</v>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G12">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12">
+        <f>(J22+J23)/2</f>
+        <v>7.9178666100735402</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
         <v>87</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>29.256022219999998</v>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G13">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>91</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>92</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13">
+        <f>(J24+J25)/2</f>
+        <v>6.1077899830220694</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
         <v>93</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>94</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>29.256022219999998</v>
+      <c r="E14" t="s">
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G14">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>99</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14">
+        <f>(J26+J27)/2</f>
+        <v>16.32806106395018</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
         <v>100</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>102</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>29.256022219999998</v>
+      <c r="E15" t="s">
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G15">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>104</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>105</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15">
+        <f>(J28+J29)/2</f>
+        <v>7.6058964912280658</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
         <v>106</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>107</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>108</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2017</v>
       </c>
       <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>29.256022219999998</v>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G16">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>112</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16">
+        <f>(J30+J31)/2</f>
+        <v>8.228211884550074</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
         <v>113</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>114</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>115</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2017</v>
       </c>
       <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>562</v>
+      </c>
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>29.256022219999998</v>
+      <c r="E17" t="s">
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G17">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>117</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>118</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17">
+        <f>(J32+J33)/2</f>
+        <v>6.9445848330503601</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
         <v>119</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>120</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>121</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
       <c r="B18" t="s">
         <v>123</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>29.256022219999998</v>
+      <c r="E18" t="s">
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G18">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
         <v>124</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>125</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18">
+        <f>(J34+J35)/2</f>
+        <v>5.556967741935475</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
         <v>126</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>127</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>128</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>29.256022219999998</v>
+      <c r="E19" t="s">
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G19">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>130</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>131</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19">
+        <f>(J36+J37)/2</f>
+        <v>4.7380461799660401</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
         <v>132</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>133</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>134</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2017</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>29.256022219999998</v>
+      <c r="E20" t="s">
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G20">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
         <v>136</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>137</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20">
+        <f>(J38+J39)/2</f>
+        <v>3.5584091680814849</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
         <v>138</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>139</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>140</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2017</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>29.256022219999998</v>
+      <c r="E21" t="s">
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G21">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
         <v>17</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>142</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>143</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21">
+        <f>(J40+J41)/2</f>
+        <v>6.0021677419354802</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
         <v>144</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>145</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>146</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
       <c r="B22" t="s">
         <v>148</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>29.256022219999998</v>
+      <c r="E22" t="s">
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G22">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
       <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
         <v>149</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>150</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22">
+        <f>(J42+J43)/2</f>
+        <v>6.6046580645161255</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
         <v>151</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>152</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="s">
         <v>153</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2017</v>
       </c>
       <c r="B23" t="s">
         <v>148</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>29.256022219999998</v>
+      <c r="E23" t="s">
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G23">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>155</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>156</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23">
+        <f>(J44+J45)/2</f>
+        <v>5.7407096774193445</v>
+      </c>
+      <c r="M23">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
         <v>157</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>158</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>159</v>
       </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2017</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>29.256022219999998</v>
+      <c r="E24" t="s">
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G24">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
       <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>162</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24">
+        <f>(J46+J47)/2</f>
+        <v>26.739300509337802</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
         <v>163</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>164</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>165</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2017</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>29.256022219999998</v>
+      <c r="E25" t="s">
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G25">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>167</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>168</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25">
+        <f>(J48+J49)/2</f>
+        <v>8.7076903225805999</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
         <v>169</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>170</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>171</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>560</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>29.256022219999998</v>
+      <c r="E26" t="s">
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G26">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>173</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26">
+        <f>(J50+J51)/2</f>
+        <v>27.301526881720349</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
         <v>175</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>176</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>177</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2018</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>29.256022219999998</v>
+      <c r="E27" t="s">
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G27">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>179</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>180</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27">
+        <f>(J52+J53)/2</f>
+        <v>11.8064296095076</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
         <v>181</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>182</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>183</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>560</v>
+      </c>
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>29.256022219999998</v>
+      <c r="E28" t="s">
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G28">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
         <v>185</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>186</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28">
+        <f>(J54+J55)/2</f>
+        <v>9.2147743293717959</v>
+      </c>
+      <c r="M28">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
         <v>187</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" t="s">
         <v>188</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>189</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>29.256022219999998</v>
+      <c r="E29" t="s">
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G29">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>191</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>192</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29">
+        <f>(J56+J57)/2</f>
+        <v>14.0241086587436</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
         <v>193</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
         <v>194</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>195</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>29.256022219999998</v>
+      <c r="E30" t="s">
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G30">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
       <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
         <v>197</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>198</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30">
+        <f>(J58+J59)/2</f>
+        <v>10.48629351443123</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
         <v>199</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>200</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>201</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>29.256022219999998</v>
+      <c r="E31" t="s">
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G31">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>203</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>204</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31">
+        <f>(J60+J61)/2</f>
+        <v>9.9832954838709256</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31" t="s">
         <v>205</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>206</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>207</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>561</v>
+      </c>
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>29.256022219999998</v>
+      <c r="E32" t="s">
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G32">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
       </c>
       <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
         <v>209</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>210</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32">
+        <f>(J62+J63)/2</f>
+        <v>8.3153614940577256</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
         <v>211</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>212</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>213</v>
       </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>29.256022219999998</v>
+      <c r="E33" t="s">
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G33">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>215</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>216</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33">
+        <f>(J64+J65)/2</f>
+        <v>14.583203123938851</v>
+      </c>
+      <c r="M33">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
         <v>217</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>218</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>219</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <v>29.256022219999998</v>
+      <c r="E34" t="s">
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G34">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
       </c>
       <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
         <v>221</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>222</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34">
+        <f>(J66+J67)/2</f>
+        <v>8.4948700848896337</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
         <v>223</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>224</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>225</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35">
-        <v>29.256022219999998</v>
+      <c r="E35" t="s">
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G35">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>227</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>228</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35">
+        <f>(J68+J69)/2</f>
+        <v>5.7723231239388753</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
         <v>229</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>230</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>231</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>29.256022219999998</v>
+      <c r="E36" t="s">
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G36">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
         <v>233</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>234</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36">
+        <f>(J70+J71)/2</f>
+        <v>23.6539966044142</v>
+      </c>
+      <c r="M36">
+        <v>36</v>
+      </c>
+      <c r="N36" t="s">
         <v>235</v>
       </c>
-      <c r="L36" t="s">
+      <c r="O36" t="s">
         <v>236</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>237</v>
       </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D37">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>29.256022219999998</v>
+      <c r="E37" t="s">
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G37">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>239</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>240</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37">
+        <f>(J72+J73)/2</f>
+        <v>18.532392122241049</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
         <v>241</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>242</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>243</v>
       </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
       <c r="B38" t="s">
         <v>97</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>562</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>29.256022219999998</v>
+      <c r="E38" t="s">
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G38">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
         <v>245</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>246</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38">
+        <f>(J74+J75)/2</f>
+        <v>15.837893378607749</v>
+      </c>
+      <c r="M38">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
         <v>247</v>
       </c>
-      <c r="L38" t="s">
+      <c r="O38" t="s">
         <v>248</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>249</v>
       </c>
-      <c r="N38" t="s">
+      <c r="Q38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
       <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>29.256022219999998</v>
+      <c r="E39" t="s">
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G39">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>251</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>252</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39">
+        <f>(J76+J77)/2</f>
+        <v>15.831025507248</v>
+      </c>
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
         <v>253</v>
       </c>
-      <c r="L39" t="s">
+      <c r="O39" t="s">
         <v>254</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>255</v>
       </c>
-      <c r="N39" t="s">
+      <c r="Q39" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
       <c r="B40" t="s">
         <v>110</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>562</v>
+      </c>
+      <c r="D40">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>29.256022219999998</v>
+      <c r="E40" t="s">
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G40">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
         <v>257</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>258</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40">
+        <f>(J78+J79)/2</f>
+        <v>19.830089643463452</v>
+      </c>
+      <c r="M40">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
         <v>259</v>
       </c>
-      <c r="L40" t="s">
+      <c r="O40" t="s">
         <v>260</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>261</v>
       </c>
-      <c r="N40" t="s">
+      <c r="Q40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
       <c r="B41" t="s">
         <v>110</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>562</v>
+      </c>
+      <c r="D41">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <v>29.256022219999998</v>
+      <c r="E41" t="s">
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G41">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>263</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>264</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41">
+        <f>(J80+J81)/2</f>
+        <v>4.1694011028447404</v>
+      </c>
+      <c r="M41">
+        <v>41</v>
+      </c>
+      <c r="N41" t="s">
         <v>265</v>
       </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
         <v>266</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>267</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>29.256022219999998</v>
+      <c r="E42" t="s">
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G42">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
       <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
         <v>269</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>270</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42">
+        <f>(J82+J83)/2</f>
+        <v>16.393248081494001</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42" t="s">
         <v>271</v>
       </c>
-      <c r="L42" t="s">
+      <c r="O42" t="s">
         <v>272</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>273</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
       <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>29.256022219999998</v>
+      <c r="E43" t="s">
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G43">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>275</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>276</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43">
+        <f>(J84+J85)/2</f>
+        <v>10.88083843803053</v>
+      </c>
+      <c r="M43">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
         <v>277</v>
       </c>
-      <c r="L43" t="s">
+      <c r="O43" t="s">
         <v>278</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
         <v>279</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>563</v>
+      </c>
+      <c r="D44">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>29.256022219999998</v>
+      <c r="E44" t="s">
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G44">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
       <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
         <v>281</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>282</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44">
+        <f>(J86+J87)/2</f>
+        <v>14.192397962648538</v>
+      </c>
+      <c r="M44">
+        <v>44</v>
+      </c>
+      <c r="N44" t="s">
         <v>283</v>
       </c>
-      <c r="L44" t="s">
+      <c r="O44" t="s">
         <v>284</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>285</v>
       </c>
-      <c r="N44" t="s">
+      <c r="Q44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>563</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>29.256022219999998</v>
+      <c r="E45" t="s">
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G45">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
         <v>17</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>287</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>288</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45">
+        <f>(J88+J89)/2</f>
+        <v>18.1004495755517</v>
+      </c>
+      <c r="M45">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
         <v>289</v>
       </c>
-      <c r="L45" t="s">
+      <c r="O45" t="s">
         <v>290</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>291</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
       <c r="B46" t="s">
         <v>148</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>563</v>
+      </c>
+      <c r="D46">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>29.256022219999998</v>
+      <c r="E46" t="s">
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G46">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
         <v>293</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>294</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46">
+        <f>(J90+J91)/2</f>
+        <v>18.3061365025466</v>
+      </c>
+      <c r="M46">
+        <v>46</v>
+      </c>
+      <c r="N46" t="s">
         <v>295</v>
       </c>
-      <c r="L46" t="s">
+      <c r="O46" t="s">
         <v>296</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>297</v>
       </c>
-      <c r="N46" t="s">
+      <c r="Q46" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D47">
         <v>11</v>
       </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>29.256022219999998</v>
+      <c r="E47" t="s">
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G47">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>299</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>300</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47">
+        <f>(J92+J93)/2</f>
+        <v>18.923197283531351</v>
+      </c>
+      <c r="M47">
+        <v>47</v>
+      </c>
+      <c r="N47" t="s">
         <v>301</v>
       </c>
-      <c r="L47" t="s">
+      <c r="O47" t="s">
         <v>302</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="s">
         <v>303</v>
       </c>
-      <c r="N47" t="s">
+      <c r="Q47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>29.256022219999998</v>
+      <c r="E48" t="s">
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G48">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
       </c>
       <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
         <v>305</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>306</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48">
+        <f>(J94+J95)/2</f>
+        <v>25.579974193548349</v>
+      </c>
+      <c r="M48">
+        <v>48</v>
+      </c>
+      <c r="N48" t="s">
         <v>307</v>
       </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>308</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>309</v>
       </c>
-      <c r="N48" t="s">
+      <c r="Q48" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>560</v>
+      </c>
+      <c r="D49">
         <v>12</v>
       </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>29.256022219999998</v>
+      <c r="E49" t="s">
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G49">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
         <v>17</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>311</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>312</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49">
+        <f>(J96+J97)/2</f>
+        <v>22.831248896434602</v>
+      </c>
+      <c r="M49">
+        <v>49</v>
+      </c>
+      <c r="N49" t="s">
         <v>313</v>
       </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
         <v>314</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
         <v>315</v>
       </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2019</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>560</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>29.256022219999998</v>
+      <c r="E50" t="s">
+        <v>15</v>
       </c>
       <c r="F50">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G50" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G50">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H50" t="s">
         <v>17</v>
       </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
       <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
         <v>317</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>318</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50">
+        <f>(J98+J99)/2</f>
+        <v>23.242622750424452</v>
+      </c>
+      <c r="M50">
+        <v>50</v>
+      </c>
+      <c r="N50" t="s">
         <v>319</v>
       </c>
-      <c r="L50" t="s">
+      <c r="O50" t="s">
         <v>320</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>321</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2019</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>29.256022219999998</v>
+      <c r="E51" t="s">
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G51">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
         <v>323</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>324</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51">
+        <f>(J100+J101)/2</f>
+        <v>6.1874367402376844</v>
+      </c>
+      <c r="M51">
+        <v>51</v>
+      </c>
+      <c r="N51" t="s">
         <v>325</v>
       </c>
-      <c r="L51" t="s">
+      <c r="O51" t="s">
         <v>326</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>327</v>
       </c>
-      <c r="N51" t="s">
+      <c r="Q51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2019</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>560</v>
+      </c>
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52">
-        <v>29.256022219999998</v>
+      <c r="E52" t="s">
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G52" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G52">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H52" t="s">
         <v>329</v>
       </c>
-      <c r="H52" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
         <v>330</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>331</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52">
+        <f>(J102+J103)/2</f>
+        <v>9.7906977249575302</v>
+      </c>
+      <c r="M52">
+        <v>52</v>
+      </c>
+      <c r="N52" t="s">
         <v>332</v>
       </c>
-      <c r="L52" t="s">
+      <c r="O52" t="s">
         <v>333</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>334</v>
       </c>
-      <c r="N52" t="s">
+      <c r="Q52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2019</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>29.256022219999998</v>
+      <c r="E53" t="s">
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G53" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G53">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H53" t="s">
         <v>329</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>17</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>336</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>337</v>
       </c>
-      <c r="K53" t="s">
+      <c r="N53" t="s">
         <v>338</v>
       </c>
-      <c r="L53" t="s">
+      <c r="O53" t="s">
         <v>339</v>
       </c>
-      <c r="M53" t="s">
+      <c r="P53" t="s">
         <v>340</v>
       </c>
-      <c r="N53" t="s">
+      <c r="Q53" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2019</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>561</v>
+      </c>
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54">
-        <v>29.256022219999998</v>
+      <c r="E54" t="s">
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G54">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
       </c>
       <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
         <v>342</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>343</v>
       </c>
-      <c r="K54" t="s">
+      <c r="N54" t="s">
         <v>344</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>345</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>346</v>
       </c>
-      <c r="N54" t="s">
+      <c r="Q54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2019</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>29.256022219999998</v>
+      <c r="E55" t="s">
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G55">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
         <v>17</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>348</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>349</v>
       </c>
-      <c r="K55" t="s">
+      <c r="N55" t="s">
         <v>350</v>
       </c>
-      <c r="L55" t="s">
+      <c r="O55" t="s">
         <v>351</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>352</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2019</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56">
-        <v>29.256022219999998</v>
+      <c r="E56" t="s">
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G56" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G56">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H56" t="s">
         <v>329</v>
       </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
       <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
         <v>354</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>355</v>
       </c>
-      <c r="K56" t="s">
+      <c r="N56" t="s">
         <v>356</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>357</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>358</v>
       </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2019</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>561</v>
+      </c>
+      <c r="D57">
         <v>4</v>
       </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57">
-        <v>29.256022219999998</v>
+      <c r="E57" t="s">
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G57" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G57">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H57" t="s">
         <v>329</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>17</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>360</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>361</v>
       </c>
-      <c r="K57" t="s">
+      <c r="N57" t="s">
         <v>362</v>
       </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>363</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>364</v>
       </c>
-      <c r="N57" t="s">
+      <c r="Q57" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2019</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>29.256022219999998</v>
+      <c r="E58" t="s">
+        <v>15</v>
       </c>
       <c r="F58">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G58" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G58">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H58" t="s">
         <v>17</v>
       </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
       <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
         <v>366</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>367</v>
       </c>
-      <c r="K58" t="s">
+      <c r="N58" t="s">
         <v>368</v>
       </c>
-      <c r="L58" t="s">
+      <c r="O58" t="s">
         <v>369</v>
       </c>
-      <c r="M58" t="s">
+      <c r="P58" t="s">
         <v>370</v>
       </c>
-      <c r="N58" t="s">
+      <c r="Q58" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2019</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>561</v>
+      </c>
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>29.256022219999998</v>
+      <c r="E59" t="s">
+        <v>15</v>
       </c>
       <c r="F59">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G59">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
         <v>372</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>373</v>
       </c>
-      <c r="K59" t="s">
+      <c r="N59" t="s">
         <v>374</v>
       </c>
-      <c r="L59" t="s">
+      <c r="O59" t="s">
         <v>375</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>376</v>
       </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2019</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
+      <c r="D60">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60">
-        <v>29.256022219999998</v>
+      <c r="E60" t="s">
+        <v>15</v>
       </c>
       <c r="F60">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G60" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G60">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H60" t="s">
         <v>329</v>
       </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
         <v>378</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>379</v>
       </c>
-      <c r="K60" t="s">
+      <c r="N60" t="s">
         <v>380</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
         <v>381</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
         <v>382</v>
       </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2019</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
+      <c r="D61">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <v>29.256022219999998</v>
+      <c r="E61" t="s">
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G61" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G61">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H61" t="s">
         <v>329</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>17</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>384</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>385</v>
       </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
         <v>386</v>
       </c>
-      <c r="L61" t="s">
+      <c r="O61" t="s">
         <v>387</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>388</v>
       </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2019</v>
       </c>
       <c r="B62" t="s">
         <v>97</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>562</v>
+      </c>
+      <c r="D62">
         <v>7</v>
       </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>29.256022219999998</v>
+      <c r="E62" t="s">
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G62" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G62">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H62" t="s">
         <v>329</v>
       </c>
-      <c r="H62" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
         <v>390</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>391</v>
       </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
         <v>392</v>
       </c>
-      <c r="L62" t="s">
+      <c r="O62" t="s">
         <v>393</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>394</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2019</v>
       </c>
       <c r="B63" t="s">
         <v>97</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>562</v>
+      </c>
+      <c r="D63">
         <v>7</v>
       </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>29.256022219999998</v>
+      <c r="E63" t="s">
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G63" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G63">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H63" t="s">
         <v>329</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>17</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>396</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>397</v>
       </c>
-      <c r="K63" t="s">
+      <c r="N63" t="s">
         <v>398</v>
       </c>
-      <c r="L63" t="s">
+      <c r="O63" t="s">
         <v>399</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>400</v>
       </c>
-      <c r="N63" t="s">
+      <c r="Q63" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2019</v>
       </c>
       <c r="B64" t="s">
         <v>110</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>562</v>
+      </c>
+      <c r="D64">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>29.256022219999998</v>
+      <c r="E64" t="s">
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G64">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
       </c>
       <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
         <v>402</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>403</v>
       </c>
-      <c r="K64" t="s">
+      <c r="N64" t="s">
         <v>404</v>
       </c>
-      <c r="L64" t="s">
+      <c r="O64" t="s">
         <v>405</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>406</v>
       </c>
-      <c r="N64" t="s">
+      <c r="Q64" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2019</v>
       </c>
       <c r="B65" t="s">
         <v>110</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>562</v>
+      </c>
+      <c r="D65">
         <v>8</v>
       </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65">
-        <v>29.256022219999998</v>
+      <c r="E65" t="s">
+        <v>15</v>
       </c>
       <c r="F65">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G65">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
         <v>17</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>408</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>409</v>
       </c>
-      <c r="K65" t="s">
+      <c r="N65" t="s">
         <v>410</v>
       </c>
-      <c r="L65" t="s">
+      <c r="O65" t="s">
         <v>411</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>412</v>
       </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2019</v>
       </c>
       <c r="B66" t="s">
         <v>123</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66">
         <v>9</v>
       </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
-        <v>29.256022219999998</v>
+      <c r="E66" t="s">
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G66" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G66">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
         <v>414</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>415</v>
       </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
         <v>416</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>417</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>418</v>
       </c>
-      <c r="N66" t="s">
+      <c r="Q66" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2019</v>
       </c>
       <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67">
         <v>9</v>
       </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
-        <v>29.256022219999998</v>
+      <c r="E67" t="s">
+        <v>15</v>
       </c>
       <c r="F67">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G67">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
         <v>420</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>421</v>
       </c>
-      <c r="K67" t="s">
+      <c r="N67" t="s">
         <v>422</v>
       </c>
-      <c r="L67" t="s">
+      <c r="O67" t="s">
         <v>423</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
         <v>424</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2019</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68">
         <v>10</v>
       </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68">
-        <v>29.256022219999998</v>
+      <c r="E68" t="s">
+        <v>15</v>
       </c>
       <c r="F68">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G68" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G68">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H68" t="s">
         <v>329</v>
       </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
       <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
         <v>426</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>427</v>
       </c>
-      <c r="K68" t="s">
+      <c r="N68" t="s">
         <v>428</v>
       </c>
-      <c r="L68" t="s">
+      <c r="O68" t="s">
         <v>429</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>430</v>
       </c>
-      <c r="N68" t="s">
+      <c r="Q68" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2019</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>563</v>
+      </c>
+      <c r="D69">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69">
-        <v>29.256022219999998</v>
+      <c r="E69" t="s">
+        <v>15</v>
       </c>
       <c r="F69">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G69" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G69">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H69" t="s">
         <v>329</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>17</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>432</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>433</v>
       </c>
-      <c r="K69" t="s">
+      <c r="N69" t="s">
         <v>434</v>
       </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>435</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>436</v>
       </c>
-      <c r="N69" t="s">
+      <c r="Q69" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2019</v>
       </c>
       <c r="B70" t="s">
         <v>148</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>29.256022219999998</v>
+      <c r="E70" t="s">
+        <v>15</v>
       </c>
       <c r="F70">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G70">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
       </c>
       <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
         <v>438</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>439</v>
       </c>
-      <c r="K70" t="s">
+      <c r="N70" t="s">
         <v>440</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>441</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>442</v>
       </c>
-      <c r="N70" t="s">
+      <c r="Q70" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2019</v>
       </c>
       <c r="B71" t="s">
         <v>148</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71">
         <v>11</v>
       </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71">
-        <v>29.256022219999998</v>
+      <c r="E71" t="s">
+        <v>15</v>
       </c>
       <c r="F71">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G71">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
         <v>17</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>444</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>445</v>
       </c>
-      <c r="K71" t="s">
+      <c r="N71" t="s">
         <v>446</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>447</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>448</v>
       </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2019</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>560</v>
+      </c>
+      <c r="D72">
         <v>12</v>
       </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>29.256022219999998</v>
+      <c r="E72" t="s">
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G72" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G72">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H72" t="s">
         <v>17</v>
       </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
         <v>450</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>451</v>
       </c>
-      <c r="K72" t="s">
+      <c r="N72" t="s">
         <v>452</v>
       </c>
-      <c r="L72" t="s">
+      <c r="O72" t="s">
         <v>453</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>454</v>
       </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2019</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>560</v>
+      </c>
+      <c r="D73">
         <v>12</v>
       </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73">
-        <v>29.256022219999998</v>
+      <c r="E73" t="s">
+        <v>15</v>
       </c>
       <c r="F73">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G73">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
       </c>
       <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
         <v>455</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>456</v>
       </c>
-      <c r="K73" t="s">
+      <c r="N73" t="s">
         <v>457</v>
       </c>
-      <c r="L73" t="s">
+      <c r="O73" t="s">
         <v>458</v>
       </c>
-      <c r="M73" t="s">
+      <c r="P73" t="s">
         <v>454</v>
       </c>
-      <c r="N73" t="s">
+      <c r="Q73" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2020</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74">
-        <v>29.256022219999998</v>
+      <c r="E74" t="s">
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G74" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G74">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H74" t="s">
         <v>17</v>
       </c>
-      <c r="H74" t="s">
-        <v>16</v>
-      </c>
       <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
         <v>459</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>460</v>
       </c>
-      <c r="K74" t="s">
+      <c r="N74" t="s">
         <v>459</v>
       </c>
-      <c r="L74" t="s">
+      <c r="O74" t="s">
         <v>460</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>454</v>
       </c>
-      <c r="N74" t="s">
+      <c r="Q74" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2020</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>29.256022219999998</v>
+      <c r="E75" t="s">
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G75">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
         <v>461</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>462</v>
       </c>
-      <c r="K75" t="s">
+      <c r="N75" t="s">
         <v>461</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>462</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>454</v>
       </c>
-      <c r="N75" t="s">
+      <c r="Q75" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2020</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>29.256022219999998</v>
+      <c r="E76" t="s">
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G76" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G76">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H76" t="s">
         <v>329</v>
       </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
         <v>463</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>464</v>
       </c>
-      <c r="K76" t="s">
+      <c r="N76" t="s">
         <v>463</v>
       </c>
-      <c r="L76" t="s">
+      <c r="O76" t="s">
         <v>464</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>454</v>
       </c>
-      <c r="N76" t="s">
+      <c r="Q76" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2020</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>560</v>
+      </c>
+      <c r="D77">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>29.256022219999998</v>
+      <c r="E77" t="s">
+        <v>15</v>
       </c>
       <c r="F77">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G77" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G77">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H77" t="s">
         <v>329</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>17</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>465</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>466</v>
       </c>
-      <c r="K77" t="s">
+      <c r="N77" t="s">
         <v>465</v>
       </c>
-      <c r="L77" t="s">
+      <c r="O77" t="s">
         <v>466</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="s">
         <v>454</v>
       </c>
-      <c r="N77" t="s">
+      <c r="Q77" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2020</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>561</v>
+      </c>
+      <c r="D78">
         <v>3</v>
       </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78">
-        <v>29.256022219999998</v>
+      <c r="E78" t="s">
+        <v>15</v>
       </c>
       <c r="F78">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G78">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
       </c>
       <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
         <v>467</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>468</v>
       </c>
-      <c r="K78" t="s">
+      <c r="N78" t="s">
         <v>467</v>
       </c>
-      <c r="L78" t="s">
+      <c r="O78" t="s">
         <v>468</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>454</v>
       </c>
-      <c r="N78" t="s">
+      <c r="Q78" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2020</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>561</v>
+      </c>
+      <c r="D79">
         <v>3</v>
       </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79">
-        <v>29.256022219999998</v>
+      <c r="E79" t="s">
+        <v>15</v>
       </c>
       <c r="F79">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G79" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G79">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
         <v>17</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>469</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>470</v>
       </c>
-      <c r="K79" t="s">
+      <c r="N79" t="s">
         <v>469</v>
       </c>
-      <c r="L79" t="s">
+      <c r="O79" t="s">
         <v>470</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="s">
         <v>454</v>
       </c>
-      <c r="N79" t="s">
+      <c r="Q79" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2020</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>561</v>
+      </c>
+      <c r="D80">
         <v>4</v>
       </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>29.256022219999998</v>
+      <c r="E80" t="s">
+        <v>15</v>
       </c>
       <c r="F80">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G80" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G80">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H80" t="s">
         <v>329</v>
       </c>
-      <c r="H80" t="s">
-        <v>16</v>
-      </c>
       <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
         <v>471</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>472</v>
       </c>
-      <c r="K80" t="s">
+      <c r="N80" t="s">
         <v>471</v>
       </c>
-      <c r="L80" t="s">
+      <c r="O80" t="s">
         <v>472</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>454</v>
       </c>
-      <c r="N80" t="s">
+      <c r="Q80" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2020</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>561</v>
+      </c>
+      <c r="D81">
         <v>4</v>
       </c>
-      <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <v>29.256022219999998</v>
+      <c r="E81" t="s">
+        <v>15</v>
       </c>
       <c r="F81">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G81" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G81">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H81" t="s">
         <v>329</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>17</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>473</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>474</v>
       </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
         <v>473</v>
       </c>
-      <c r="L81" t="s">
+      <c r="O81" t="s">
         <v>474</v>
       </c>
-      <c r="M81" t="s">
+      <c r="P81" t="s">
         <v>454</v>
       </c>
-      <c r="N81" t="s">
+      <c r="Q81" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2020</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>561</v>
+      </c>
+      <c r="D82">
         <v>5</v>
       </c>
-      <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82">
-        <v>29.256022219999998</v>
+      <c r="E82" t="s">
+        <v>15</v>
       </c>
       <c r="F82">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G82" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G82">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H82" t="s">
         <v>17</v>
       </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
       <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
         <v>475</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>476</v>
       </c>
-      <c r="K82" t="s">
+      <c r="N82" t="s">
         <v>477</v>
       </c>
-      <c r="L82" t="s">
+      <c r="O82" t="s">
         <v>478</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="s">
         <v>477</v>
       </c>
-      <c r="N82" t="s">
+      <c r="Q82" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D83">
         <v>5</v>
       </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83">
-        <v>29.256022219999998</v>
+      <c r="E83" t="s">
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G83">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
       </c>
       <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
         <v>479</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>480</v>
       </c>
-      <c r="K83" t="s">
+      <c r="N83" t="s">
         <v>481</v>
       </c>
-      <c r="L83" t="s">
+      <c r="O83" t="s">
         <v>482</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" t="s">
         <v>481</v>
       </c>
-      <c r="N83" t="s">
+      <c r="Q83" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2020</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>562</v>
+      </c>
+      <c r="D84">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84">
-        <v>29.256022219999998</v>
+      <c r="E84" t="s">
+        <v>15</v>
       </c>
       <c r="F84">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G84" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G84">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H84" t="s">
         <v>329</v>
       </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
       <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
         <v>483</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>484</v>
       </c>
-      <c r="K84" t="s">
+      <c r="N84" t="s">
         <v>485</v>
       </c>
-      <c r="L84" t="s">
+      <c r="O84" t="s">
         <v>486</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>485</v>
       </c>
-      <c r="N84" t="s">
+      <c r="Q84" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2020</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>562</v>
+      </c>
+      <c r="D85">
         <v>6</v>
       </c>
-      <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85">
-        <v>29.256022219999998</v>
+      <c r="E85" t="s">
+        <v>15</v>
       </c>
       <c r="F85">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G85" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G85">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H85" t="s">
         <v>329</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>487</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>488</v>
       </c>
-      <c r="K85" t="s">
+      <c r="N85" t="s">
         <v>489</v>
       </c>
-      <c r="L85" t="s">
+      <c r="O85" t="s">
         <v>490</v>
       </c>
-      <c r="M85" t="s">
+      <c r="P85" t="s">
         <v>489</v>
       </c>
-      <c r="N85" t="s">
+      <c r="Q85" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>562</v>
+      </c>
+      <c r="D86">
         <v>7</v>
       </c>
-      <c r="D86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86">
-        <v>29.256022219999998</v>
+      <c r="E86" t="s">
+        <v>15</v>
       </c>
       <c r="F86">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G86" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G86">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H86" t="s">
         <v>329</v>
       </c>
-      <c r="H86" t="s">
-        <v>16</v>
-      </c>
       <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
         <v>491</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>492</v>
       </c>
-      <c r="K86" t="s">
+      <c r="N86" t="s">
         <v>493</v>
       </c>
-      <c r="L86" t="s">
+      <c r="O86" t="s">
         <v>494</v>
       </c>
-      <c r="M86" t="s">
+      <c r="P86" t="s">
         <v>493</v>
       </c>
-      <c r="N86" t="s">
+      <c r="Q86" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2020</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>562</v>
+      </c>
+      <c r="D87">
         <v>7</v>
       </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87">
-        <v>29.256022219999998</v>
+      <c r="E87" t="s">
+        <v>15</v>
       </c>
       <c r="F87">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G87" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G87">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H87" t="s">
         <v>329</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>495</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>496</v>
       </c>
-      <c r="K87" t="s">
+      <c r="N87" t="s">
         <v>497</v>
       </c>
-      <c r="L87" t="s">
+      <c r="O87" t="s">
         <v>498</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>497</v>
       </c>
-      <c r="N87" t="s">
+      <c r="Q87" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2020</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>562</v>
+      </c>
+      <c r="D88">
         <v>8</v>
       </c>
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88">
-        <v>29.256022219999998</v>
+      <c r="E88" t="s">
+        <v>15</v>
       </c>
       <c r="F88">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G88">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H88" t="s">
         <v>16</v>
       </c>
       <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
         <v>479</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>499</v>
       </c>
-      <c r="K88" t="s">
+      <c r="N88" t="s">
         <v>481</v>
       </c>
-      <c r="L88" t="s">
+      <c r="O88" t="s">
         <v>500</v>
       </c>
-      <c r="M88" t="s">
+      <c r="P88" t="s">
         <v>481</v>
       </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>562</v>
+      </c>
+      <c r="D89">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>29.256022219999998</v>
+      <c r="E89" t="s">
+        <v>15</v>
       </c>
       <c r="F89">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G89">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
         <v>17</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>501</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>502</v>
       </c>
-      <c r="K89" t="s">
+      <c r="N89" t="s">
         <v>503</v>
       </c>
-      <c r="L89" t="s">
+      <c r="O89" t="s">
         <v>504</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>503</v>
       </c>
-      <c r="N89" t="s">
+      <c r="Q89" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2020</v>
       </c>
       <c r="B90" t="s">
         <v>123</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>563</v>
+      </c>
+      <c r="D90">
         <v>9</v>
       </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90">
-        <v>29.256022219999998</v>
+      <c r="E90" t="s">
+        <v>15</v>
       </c>
       <c r="F90">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G90" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G90">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" t="s">
-        <v>16</v>
-      </c>
       <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
         <v>505</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>506</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N90" t="s">
         <v>507</v>
       </c>
-      <c r="L90" t="s">
+      <c r="O90" t="s">
         <v>508</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>507</v>
       </c>
-      <c r="N90" t="s">
+      <c r="Q90" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2020</v>
       </c>
       <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>563</v>
+      </c>
+      <c r="D91">
         <v>9</v>
       </c>
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91">
-        <v>29.256022219999998</v>
+      <c r="E91" t="s">
+        <v>15</v>
       </c>
       <c r="F91">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G91">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
       </c>
       <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
         <v>509</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>510</v>
       </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>511</v>
       </c>
-      <c r="L91" t="s">
+      <c r="O91" t="s">
         <v>512</v>
       </c>
-      <c r="M91" t="s">
+      <c r="P91" t="s">
         <v>511</v>
       </c>
-      <c r="N91" t="s">
+      <c r="Q91" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2020</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92">
         <v>10</v>
       </c>
-      <c r="D92" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92">
-        <v>29.256022219999998</v>
+      <c r="E92" t="s">
+        <v>15</v>
       </c>
       <c r="F92">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G92" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G92">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H92" t="s">
         <v>329</v>
       </c>
-      <c r="H92" t="s">
-        <v>16</v>
-      </c>
       <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
         <v>513</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>514</v>
       </c>
-      <c r="K92" t="s">
+      <c r="N92" t="s">
         <v>515</v>
       </c>
-      <c r="L92" t="s">
+      <c r="O92" t="s">
         <v>516</v>
       </c>
-      <c r="M92" t="s">
+      <c r="P92" t="s">
         <v>515</v>
       </c>
-      <c r="N92" t="s">
+      <c r="Q92" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2020</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93">
         <v>10</v>
       </c>
-      <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93">
-        <v>29.256022219999998</v>
+      <c r="E93" t="s">
+        <v>15</v>
       </c>
       <c r="F93">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G93" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G93">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H93" t="s">
         <v>329</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>17</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>517</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>518</v>
       </c>
-      <c r="K93" t="s">
+      <c r="N93" t="s">
         <v>519</v>
       </c>
-      <c r="L93" t="s">
+      <c r="O93" t="s">
         <v>520</v>
       </c>
-      <c r="M93" t="s">
+      <c r="P93" t="s">
         <v>519</v>
       </c>
-      <c r="N93" t="s">
+      <c r="Q93" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2020</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>560</v>
+      </c>
+      <c r="D94">
         <v>12</v>
       </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94">
-        <v>29.256022219999998</v>
+      <c r="E94" t="s">
+        <v>15</v>
       </c>
       <c r="F94">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G94" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G94">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H94" t="s">
         <v>17</v>
       </c>
-      <c r="H94" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
         <v>521</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>522</v>
       </c>
-      <c r="K94" t="s">
+      <c r="N94" t="s">
         <v>523</v>
       </c>
-      <c r="L94" t="s">
+      <c r="O94" t="s">
         <v>524</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
         <v>523</v>
       </c>
-      <c r="N94" t="s">
+      <c r="Q94" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2020</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>560</v>
+      </c>
+      <c r="D95">
         <v>12</v>
       </c>
-      <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95">
-        <v>29.256022219999998</v>
+      <c r="E95" t="s">
+        <v>15</v>
       </c>
       <c r="F95">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G95">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H95" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
         <v>525</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>526</v>
       </c>
-      <c r="K95" t="s">
+      <c r="N95" t="s">
         <v>527</v>
       </c>
-      <c r="L95" t="s">
+      <c r="O95" t="s">
         <v>528</v>
       </c>
-      <c r="M95" t="s">
+      <c r="P95" t="s">
         <v>527</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2021</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>560</v>
+      </c>
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>29.256022219999998</v>
+      <c r="E96" t="s">
+        <v>15</v>
       </c>
       <c r="F96">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G96" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G96">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H96" t="s">
         <v>17</v>
       </c>
-      <c r="H96" t="s">
-        <v>16</v>
-      </c>
       <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
         <v>529</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>530</v>
       </c>
-      <c r="K96" t="s">
+      <c r="N96" t="s">
         <v>531</v>
       </c>
-      <c r="L96" t="s">
+      <c r="O96" t="s">
         <v>532</v>
       </c>
-      <c r="M96" t="s">
+      <c r="P96" t="s">
         <v>531</v>
       </c>
-      <c r="N96" t="s">
+      <c r="Q96" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2021</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>560</v>
+      </c>
+      <c r="D97">
         <v>1</v>
       </c>
-      <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97">
-        <v>29.256022219999998</v>
+      <c r="E97" t="s">
+        <v>15</v>
       </c>
       <c r="F97">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G97">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
       </c>
       <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
         <v>533</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>534</v>
       </c>
-      <c r="K97" t="s">
+      <c r="N97" t="s">
         <v>535</v>
       </c>
-      <c r="L97" t="s">
+      <c r="O97" t="s">
         <v>536</v>
       </c>
-      <c r="M97" t="s">
+      <c r="P97" t="s">
         <v>535</v>
       </c>
-      <c r="N97" t="s">
+      <c r="Q97" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>560</v>
+      </c>
+      <c r="D98">
         <v>2</v>
       </c>
-      <c r="D98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98">
-        <v>29.256022219999998</v>
+      <c r="E98" t="s">
+        <v>15</v>
       </c>
       <c r="F98">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G98" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G98">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H98" t="s">
         <v>329</v>
       </c>
-      <c r="H98" t="s">
-        <v>16</v>
-      </c>
       <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
         <v>533</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>537</v>
       </c>
-      <c r="K98" t="s">
+      <c r="N98" t="s">
         <v>535</v>
       </c>
-      <c r="L98" t="s">
+      <c r="O98" t="s">
         <v>538</v>
       </c>
-      <c r="M98" t="s">
+      <c r="P98" t="s">
         <v>535</v>
       </c>
-      <c r="N98" t="s">
+      <c r="Q98" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2021</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>560</v>
+      </c>
+      <c r="D99">
         <v>2</v>
       </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99">
-        <v>29.256022219999998</v>
+      <c r="E99" t="s">
+        <v>15</v>
       </c>
       <c r="F99">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G99" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G99">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H99" t="s">
         <v>329</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>17</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>539</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>540</v>
       </c>
-      <c r="K99" t="s">
+      <c r="N99" t="s">
         <v>541</v>
       </c>
-      <c r="L99" t="s">
+      <c r="O99" t="s">
         <v>542</v>
       </c>
-      <c r="M99" t="s">
+      <c r="P99" t="s">
         <v>541</v>
       </c>
-      <c r="N99" t="s">
+      <c r="Q99" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2021</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>561</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100">
-        <v>29.256022219999998</v>
+      <c r="E100" t="s">
+        <v>15</v>
       </c>
       <c r="F100">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G100">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H100" t="s">
         <v>16</v>
       </c>
       <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
         <v>543</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>544</v>
       </c>
-      <c r="K100" t="s">
+      <c r="N100" t="s">
         <v>545</v>
       </c>
-      <c r="L100" t="s">
+      <c r="O100" t="s">
         <v>546</v>
       </c>
-      <c r="M100" t="s">
+      <c r="P100" t="s">
         <v>545</v>
       </c>
-      <c r="N100" t="s">
+      <c r="Q100" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2021</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>561</v>
+      </c>
+      <c r="D101">
         <v>3</v>
       </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101">
-        <v>29.256022219999998</v>
+      <c r="E101" t="s">
+        <v>15</v>
       </c>
       <c r="F101">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G101">
+        <v>-90.668099999999995</v>
       </c>
       <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
         <v>17</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>547</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>548</v>
       </c>
-      <c r="K101" t="s">
+      <c r="N101" t="s">
         <v>549</v>
       </c>
-      <c r="L101" t="s">
+      <c r="O101" t="s">
         <v>550</v>
       </c>
-      <c r="M101" t="s">
+      <c r="P101" t="s">
         <v>549</v>
       </c>
-      <c r="N101" t="s">
+      <c r="Q101" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2021</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="s">
+        <v>561</v>
+      </c>
+      <c r="D102">
         <v>4</v>
       </c>
-      <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102">
-        <v>29.256022219999998</v>
+      <c r="E102" t="s">
+        <v>15</v>
       </c>
       <c r="F102">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G102" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G102">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H102" t="s">
         <v>329</v>
       </c>
-      <c r="H102" t="s">
-        <v>16</v>
-      </c>
       <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
         <v>551</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>552</v>
       </c>
-      <c r="K102" t="s">
+      <c r="N102" t="s">
         <v>553</v>
       </c>
-      <c r="L102" t="s">
+      <c r="O102" t="s">
         <v>554</v>
       </c>
-      <c r="M102" t="s">
+      <c r="P102" t="s">
         <v>553</v>
       </c>
-      <c r="N102" t="s">
+      <c r="Q102" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2021</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="s">
+        <v>561</v>
+      </c>
+      <c r="D103">
         <v>4</v>
       </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103">
-        <v>29.256022219999998</v>
+      <c r="E103" t="s">
+        <v>15</v>
       </c>
       <c r="F103">
-        <v>-90.668099999999995</v>
-      </c>
-      <c r="G103" t="s">
+        <v>29.256022219999998</v>
+      </c>
+      <c r="G103">
+        <v>-90.668099999999995</v>
+      </c>
+      <c r="H103" t="s">
         <v>329</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>17</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>555</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>556</v>
       </c>
-      <c r="K103" t="s">
+      <c r="N103" t="s">
         <v>557</v>
       </c>
-      <c r="L103" t="s">
+      <c r="O103" t="s">
         <v>558</v>
       </c>
-      <c r="M103" t="s">
+      <c r="P103" t="s">
         <v>557</v>
       </c>
-      <c r="N103" t="s">
+      <c r="Q103" t="s">
         <v>558</v>
       </c>
     </row>
